--- a/outputs/sisaprophelper#autoaprop/autoapropxlsx/IDF.XLSX
+++ b/outputs/sisaprophelper#autoaprop/autoapropxlsx/IDF.XLSX
@@ -130,9 +130,6 @@
     <t>Domingo</t>
   </si>
   <si>
-    <t>CALVER DE MOURA BRITO</t>
-  </si>
-  <si>
     <t>ALEXANDRE CAMPOS TOBIAS</t>
   </si>
   <si>
@@ -148,7 +145,7 @@
     <t>WALDENIR JOSE DAS C. OLIVEIRAS</t>
   </si>
   <si>
-    <t>243</t>
+    <t> </t>
   </si>
   <si>
     <t>2505</t>
@@ -164,6 +161,9 @@
   </si>
   <si>
     <t>3709</t>
+  </si>
+  <si>
+    <t> </t>
   </si>
   <si>
     <t>SETOR IDF</t>
@@ -3518,103 +3518,103 @@
       </c>
       <c r="M12" s="174" t="str">
         <f>G12</f>
-        <v>CALVER DE MOURA BRITO</v>
+        <v>ALEXANDRE CAMPOS TOBIAS</v>
       </c>
       <c r="N12" s="161"/>
       <c r="O12" s="187" t="str">
         <f>H12</f>
-        <v>ALEXANDRE CAMPOS TOBIAS</v>
+        <v>LUIS ANTONIO DE SOUSA</v>
       </c>
       <c r="P12" s="161" t="str">
         <f>I12</f>
-        <v>LUIS ANTONIO DE SOUSA</v>
+        <v>GUILHERME LEMOS MOURAO</v>
       </c>
       <c r="Q12" s="161" t="str">
         <f>J12</f>
-        <v>GUILHERME LEMOS MOURAO</v>
+        <v>LUIZ ANTONIO DA SILVA</v>
       </c>
       <c r="R12" s="161" t="str">
         <f>K12</f>
-        <v>LUIZ ANTONIO DA SILVA</v>
+        <v>WALDENIR JOSE DAS C. OLIVEIRAS</v>
       </c>
       <c r="S12" s="161" t="str">
         <f>L12</f>
-        <v>WALDENIR JOSE DAS C. OLIVEIRAS</v>
+        <v> </v>
       </c>
       <c r="T12" s="189"/>
       <c r="U12" s="174" t="str">
         <f>G12</f>
-        <v>CALVER DE MOURA BRITO</v>
+        <v>ALEXANDRE CAMPOS TOBIAS</v>
       </c>
       <c r="V12" s="161"/>
       <c r="W12" s="161"/>
       <c r="X12" s="161" t="str">
         <f>H12</f>
-        <v>ALEXANDRE CAMPOS TOBIAS</v>
+        <v>LUIS ANTONIO DE SOUSA</v>
       </c>
       <c r="Y12" s="161" t="str">
         <f>I12</f>
-        <v>LUIS ANTONIO DE SOUSA</v>
+        <v>GUILHERME LEMOS MOURAO</v>
       </c>
       <c r="Z12" s="161" t="str">
         <f>J12</f>
-        <v>GUILHERME LEMOS MOURAO</v>
+        <v>LUIZ ANTONIO DA SILVA</v>
       </c>
       <c r="AA12" s="161" t="str">
         <f>K12</f>
-        <v>LUIZ ANTONIO DA SILVA</v>
+        <v>WALDENIR JOSE DAS C. OLIVEIRAS</v>
       </c>
       <c r="AB12" s="161" t="str">
         <f>L12</f>
-        <v>WALDENIR JOSE DAS C. OLIVEIRAS</v>
+        <v> </v>
       </c>
       <c r="AC12" s="181" t="str">
         <f t="shared" ref="AC12:AH12" si="0">G12</f>
-        <v>CALVER DE MOURA BRITO</v>
+        <v>ALEXANDRE CAMPOS TOBIAS</v>
       </c>
       <c r="AD12" s="183" t="str">
         <f t="shared" si="0"/>
-        <v>ALEXANDRE CAMPOS TOBIAS</v>
+        <v>LUIS ANTONIO DE SOUSA</v>
       </c>
       <c r="AE12" s="161" t="str">
         <f t="shared" si="0"/>
-        <v>LUIS ANTONIO DE SOUSA</v>
+        <v>GUILHERME LEMOS MOURAO</v>
       </c>
       <c r="AF12" s="161" t="str">
         <f t="shared" si="0"/>
-        <v>GUILHERME LEMOS MOURAO</v>
+        <v>LUIZ ANTONIO DA SILVA</v>
       </c>
       <c r="AG12" s="161" t="str">
         <f t="shared" si="0"/>
-        <v>LUIZ ANTONIO DA SILVA</v>
+        <v>WALDENIR JOSE DAS C. OLIVEIRAS</v>
       </c>
       <c r="AH12" s="161" t="str">
         <f t="shared" si="0"/>
-        <v>WALDENIR JOSE DAS C. OLIVEIRAS</v>
+        <v> </v>
       </c>
       <c r="AI12" s="185" t="str">
         <f t="shared" ref="AI12:AN12" si="1">G12</f>
-        <v>CALVER DE MOURA BRITO</v>
+        <v>ALEXANDRE CAMPOS TOBIAS</v>
       </c>
       <c r="AJ12" s="183" t="str">
         <f t="shared" si="1"/>
-        <v>ALEXANDRE CAMPOS TOBIAS</v>
+        <v>LUIS ANTONIO DE SOUSA</v>
       </c>
       <c r="AK12" s="161" t="str">
         <f t="shared" si="1"/>
-        <v>LUIS ANTONIO DE SOUSA</v>
+        <v>GUILHERME LEMOS MOURAO</v>
       </c>
       <c r="AL12" s="161" t="str">
         <f t="shared" si="1"/>
-        <v>GUILHERME LEMOS MOURAO</v>
+        <v>LUIZ ANTONIO DA SILVA</v>
       </c>
       <c r="AM12" s="161" t="str">
         <f t="shared" si="1"/>
-        <v>LUIZ ANTONIO DA SILVA</v>
+        <v>WALDENIR JOSE DAS C. OLIVEIRAS</v>
       </c>
       <c r="AN12" s="161" t="str">
         <f t="shared" si="1"/>
-        <v>WALDENIR JOSE DAS C. OLIVEIRAS</v>
+        <v> </v>
       </c>
     </row>
     <row r="13" spans="1:40" s="100" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3898,103 +3898,103 @@
       </c>
       <c r="M19" s="191" t="str">
         <f>G19</f>
-        <v>243</v>
+        <v>2505</v>
       </c>
       <c r="N19" s="172"/>
       <c r="O19" s="172" t="str">
         <f>H19</f>
-        <v>2505</v>
+        <v>2824</v>
       </c>
       <c r="P19" s="172" t="str">
         <f>I19</f>
-        <v>2824</v>
+        <v>3575</v>
       </c>
       <c r="Q19" s="172" t="str">
         <f>J19</f>
-        <v>3575</v>
+        <v>3591</v>
       </c>
       <c r="R19" s="172" t="str">
         <f>K19</f>
-        <v>3591</v>
+        <v>3709</v>
       </c>
       <c r="S19" s="172" t="str">
         <f>L19</f>
-        <v>3709</v>
+        <v> </v>
       </c>
       <c r="T19" s="209"/>
       <c r="U19" s="191" t="str">
         <f>G19</f>
-        <v>243</v>
+        <v>2505</v>
       </c>
       <c r="V19" s="172"/>
       <c r="W19" s="172"/>
       <c r="X19" s="172" t="str">
         <f>H19</f>
-        <v>2505</v>
+        <v>2824</v>
       </c>
       <c r="Y19" s="172" t="str">
         <f>I19</f>
-        <v>2824</v>
+        <v>3575</v>
       </c>
       <c r="Z19" s="172" t="str">
         <f>J19</f>
-        <v>3575</v>
+        <v>3591</v>
       </c>
       <c r="AA19" s="172" t="str">
         <f>K19</f>
-        <v>3591</v>
+        <v>3709</v>
       </c>
       <c r="AB19" s="172" t="str">
         <f>L19</f>
-        <v>3709</v>
+        <v> </v>
       </c>
       <c r="AC19" s="207" t="str">
         <f t="shared" ref="AC19:AH19" si="2">G19</f>
-        <v>243</v>
+        <v>2505</v>
       </c>
       <c r="AD19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>2505</v>
+        <v>2824</v>
       </c>
       <c r="AE19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>2824</v>
+        <v>3575</v>
       </c>
       <c r="AF19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>3575</v>
+        <v>3591</v>
       </c>
       <c r="AG19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>3591</v>
+        <v>3709</v>
       </c>
       <c r="AH19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>3709</v>
+        <v> </v>
       </c>
       <c r="AI19" s="205" t="str">
         <f t="shared" ref="AI19:AN19" si="3">G19</f>
-        <v>243</v>
+        <v>2505</v>
       </c>
       <c r="AJ19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>2505</v>
+        <v>2824</v>
       </c>
       <c r="AK19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>2824</v>
+        <v>3575</v>
       </c>
       <c r="AL19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>3575</v>
+        <v>3591</v>
       </c>
       <c r="AM19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>3591</v>
+        <v>3709</v>
       </c>
       <c r="AN19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>3709</v>
+        <v> </v>
       </c>
     </row>
     <row r="20" spans="1:40" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6603,52 +6603,52 @@
       <c r="F12" s="159"/>
       <c r="G12" s="174" t="str">
         <f>'Segunda a Sexta'!G12:G18</f>
-        <v>CALVER DE MOURA BRITO</v>
+        <v>ALEXANDRE CAMPOS TOBIAS</v>
       </c>
       <c r="H12" s="161" t="str">
         <f>'Segunda a Sexta'!H12:H18</f>
-        <v>ALEXANDRE CAMPOS TOBIAS</v>
+        <v>LUIS ANTONIO DE SOUSA</v>
       </c>
       <c r="I12" s="161" t="str">
         <f>'Segunda a Sexta'!I12:I18</f>
-        <v>LUIS ANTONIO DE SOUSA</v>
+        <v>GUILHERME LEMOS MOURAO</v>
       </c>
       <c r="J12" s="161" t="str">
         <f>'Segunda a Sexta'!J12:J18</f>
-        <v>GUILHERME LEMOS MOURAO</v>
+        <v>LUIZ ANTONIO DA SILVA</v>
       </c>
       <c r="K12" s="161" t="str">
         <f>'Segunda a Sexta'!K12:K18</f>
-        <v>LUIZ ANTONIO DA SILVA</v>
+        <v>WALDENIR JOSE DAS C. OLIVEIRAS</v>
       </c>
       <c r="L12" s="161" t="str">
         <f>'Segunda a Sexta'!L12:L18</f>
-        <v>WALDENIR JOSE DAS C. OLIVEIRAS</v>
+        <v> </v>
       </c>
       <c r="M12" s="174" t="str">
         <f>'Segunda a Sexta'!G12:G18</f>
-        <v>CALVER DE MOURA BRITO</v>
+        <v>ALEXANDRE CAMPOS TOBIAS</v>
       </c>
       <c r="N12" s="161"/>
       <c r="O12" s="187" t="str">
         <f>'Segunda a Sexta'!H12:H18</f>
-        <v>ALEXANDRE CAMPOS TOBIAS</v>
+        <v>LUIS ANTONIO DE SOUSA</v>
       </c>
       <c r="P12" s="187" t="str">
         <f>'Segunda a Sexta'!I12:I18</f>
-        <v>LUIS ANTONIO DE SOUSA</v>
+        <v>GUILHERME LEMOS MOURAO</v>
       </c>
       <c r="Q12" s="187" t="str">
         <f>'Segunda a Sexta'!J12:J18</f>
-        <v>GUILHERME LEMOS MOURAO</v>
+        <v>LUIZ ANTONIO DA SILVA</v>
       </c>
       <c r="R12" s="187" t="str">
         <f>'Segunda a Sexta'!K12:K18</f>
-        <v>LUIZ ANTONIO DA SILVA</v>
+        <v>WALDENIR JOSE DAS C. OLIVEIRAS</v>
       </c>
       <c r="S12" s="161" t="str">
         <f>'Segunda a Sexta'!L12:L18</f>
-        <v>WALDENIR JOSE DAS C. OLIVEIRAS</v>
+        <v> </v>
       </c>
       <c r="T12" s="189"/>
       <c r="U12" s="262"/>
@@ -6935,52 +6935,52 @@
       </c>
       <c r="G19" s="258" t="str">
         <f>'Segunda a Sexta'!G19:G20</f>
-        <v>243</v>
+        <v>2505</v>
       </c>
       <c r="H19" s="168" t="str">
         <f>'Segunda a Sexta'!H19:H20</f>
-        <v>2505</v>
+        <v>2824</v>
       </c>
       <c r="I19" s="168" t="str">
         <f>'Segunda a Sexta'!I19:I20</f>
-        <v>2824</v>
+        <v>3575</v>
       </c>
       <c r="J19" s="170" t="str">
         <f>'Segunda a Sexta'!J19:J20</f>
-        <v>3575</v>
+        <v>3591</v>
       </c>
       <c r="K19" s="172" t="str">
         <f>'Segunda a Sexta'!K19:K20</f>
-        <v>3591</v>
+        <v>3709</v>
       </c>
       <c r="L19" s="172" t="str">
         <f>'Segunda a Sexta'!L19:L20</f>
-        <v>3709</v>
+        <v> </v>
       </c>
       <c r="M19" s="191" t="str">
         <f>'Segunda a Sexta'!G19:G20</f>
-        <v>243</v>
+        <v>2505</v>
       </c>
       <c r="N19" s="172"/>
       <c r="O19" s="257" t="str">
         <f>'Segunda a Sexta'!H19:H20</f>
-        <v>2505</v>
+        <v>2824</v>
       </c>
       <c r="P19" s="257" t="str">
         <f>'Segunda a Sexta'!I19:I20</f>
-        <v>2824</v>
+        <v>3575</v>
       </c>
       <c r="Q19" s="257" t="str">
         <f>'Segunda a Sexta'!J19:J20</f>
-        <v>3575</v>
+        <v>3591</v>
       </c>
       <c r="R19" s="257" t="str">
         <f>'Segunda a Sexta'!K19:K20</f>
-        <v>3591</v>
+        <v>3709</v>
       </c>
       <c r="S19" s="172" t="str">
         <f>'Segunda a Sexta'!L19:L20</f>
-        <v>3709</v>
+        <v> </v>
       </c>
       <c r="T19" s="209"/>
       <c r="U19" s="262"/>

--- a/outputs/sisaprophelper#autoaprop/autoapropxlsx/IDF.XLSX
+++ b/outputs/sisaprophelper#autoaprop/autoapropxlsx/IDF.XLSX
@@ -133,9 +133,6 @@
     <t>ALEXANDRE CAMPOS TOBIAS</t>
   </si>
   <si>
-    <t>LUIS ANTONIO DE SOUSA</t>
-  </si>
-  <si>
     <t>GUILHERME LEMOS MOURAO</t>
   </si>
   <si>
@@ -148,10 +145,10 @@
     <t> </t>
   </si>
   <si>
-    <t>2505</t>
+    <t> </t>
   </si>
   <si>
-    <t>2824</t>
+    <t>2505</t>
   </si>
   <si>
     <t>3575</t>
@@ -161,6 +158,9 @@
   </si>
   <si>
     <t>3709</t>
+  </si>
+  <si>
+    <t> </t>
   </si>
   <si>
     <t> </t>
@@ -3523,19 +3523,19 @@
       <c r="N12" s="161"/>
       <c r="O12" s="187" t="str">
         <f>H12</f>
-        <v>LUIS ANTONIO DE SOUSA</v>
+        <v>GUILHERME LEMOS MOURAO</v>
       </c>
       <c r="P12" s="161" t="str">
         <f>I12</f>
-        <v>GUILHERME LEMOS MOURAO</v>
+        <v>LUIZ ANTONIO DA SILVA</v>
       </c>
       <c r="Q12" s="161" t="str">
         <f>J12</f>
-        <v>LUIZ ANTONIO DA SILVA</v>
+        <v>WALDENIR JOSE DAS C. OLIVEIRAS</v>
       </c>
       <c r="R12" s="161" t="str">
         <f>K12</f>
-        <v>WALDENIR JOSE DAS C. OLIVEIRAS</v>
+        <v> </v>
       </c>
       <c r="S12" s="161" t="str">
         <f>L12</f>
@@ -3550,19 +3550,19 @@
       <c r="W12" s="161"/>
       <c r="X12" s="161" t="str">
         <f>H12</f>
-        <v>LUIS ANTONIO DE SOUSA</v>
+        <v>GUILHERME LEMOS MOURAO</v>
       </c>
       <c r="Y12" s="161" t="str">
         <f>I12</f>
-        <v>GUILHERME LEMOS MOURAO</v>
+        <v>LUIZ ANTONIO DA SILVA</v>
       </c>
       <c r="Z12" s="161" t="str">
         <f>J12</f>
-        <v>LUIZ ANTONIO DA SILVA</v>
+        <v>WALDENIR JOSE DAS C. OLIVEIRAS</v>
       </c>
       <c r="AA12" s="161" t="str">
         <f>K12</f>
-        <v>WALDENIR JOSE DAS C. OLIVEIRAS</v>
+        <v> </v>
       </c>
       <c r="AB12" s="161" t="str">
         <f>L12</f>
@@ -3574,19 +3574,19 @@
       </c>
       <c r="AD12" s="183" t="str">
         <f t="shared" si="0"/>
-        <v>LUIS ANTONIO DE SOUSA</v>
+        <v>GUILHERME LEMOS MOURAO</v>
       </c>
       <c r="AE12" s="161" t="str">
         <f t="shared" si="0"/>
-        <v>GUILHERME LEMOS MOURAO</v>
+        <v>LUIZ ANTONIO DA SILVA</v>
       </c>
       <c r="AF12" s="161" t="str">
         <f t="shared" si="0"/>
-        <v>LUIZ ANTONIO DA SILVA</v>
+        <v>WALDENIR JOSE DAS C. OLIVEIRAS</v>
       </c>
       <c r="AG12" s="161" t="str">
         <f t="shared" si="0"/>
-        <v>WALDENIR JOSE DAS C. OLIVEIRAS</v>
+        <v> </v>
       </c>
       <c r="AH12" s="161" t="str">
         <f t="shared" si="0"/>
@@ -3598,19 +3598,19 @@
       </c>
       <c r="AJ12" s="183" t="str">
         <f t="shared" si="1"/>
-        <v>LUIS ANTONIO DE SOUSA</v>
+        <v>GUILHERME LEMOS MOURAO</v>
       </c>
       <c r="AK12" s="161" t="str">
         <f t="shared" si="1"/>
-        <v>GUILHERME LEMOS MOURAO</v>
+        <v>LUIZ ANTONIO DA SILVA</v>
       </c>
       <c r="AL12" s="161" t="str">
         <f t="shared" si="1"/>
-        <v>LUIZ ANTONIO DA SILVA</v>
+        <v>WALDENIR JOSE DAS C. OLIVEIRAS</v>
       </c>
       <c r="AM12" s="161" t="str">
         <f t="shared" si="1"/>
-        <v>WALDENIR JOSE DAS C. OLIVEIRAS</v>
+        <v> </v>
       </c>
       <c r="AN12" s="161" t="str">
         <f t="shared" si="1"/>
@@ -3903,19 +3903,19 @@
       <c r="N19" s="172"/>
       <c r="O19" s="172" t="str">
         <f>H19</f>
-        <v>2824</v>
+        <v>3575</v>
       </c>
       <c r="P19" s="172" t="str">
         <f>I19</f>
-        <v>3575</v>
+        <v>3591</v>
       </c>
       <c r="Q19" s="172" t="str">
         <f>J19</f>
-        <v>3591</v>
+        <v>3709</v>
       </c>
       <c r="R19" s="172" t="str">
         <f>K19</f>
-        <v>3709</v>
+        <v> </v>
       </c>
       <c r="S19" s="172" t="str">
         <f>L19</f>
@@ -3930,19 +3930,19 @@
       <c r="W19" s="172"/>
       <c r="X19" s="172" t="str">
         <f>H19</f>
-        <v>2824</v>
+        <v>3575</v>
       </c>
       <c r="Y19" s="172" t="str">
         <f>I19</f>
-        <v>3575</v>
+        <v>3591</v>
       </c>
       <c r="Z19" s="172" t="str">
         <f>J19</f>
-        <v>3591</v>
+        <v>3709</v>
       </c>
       <c r="AA19" s="172" t="str">
         <f>K19</f>
-        <v>3709</v>
+        <v> </v>
       </c>
       <c r="AB19" s="172" t="str">
         <f>L19</f>
@@ -3954,19 +3954,19 @@
       </c>
       <c r="AD19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>2824</v>
+        <v>3575</v>
       </c>
       <c r="AE19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>3575</v>
+        <v>3591</v>
       </c>
       <c r="AF19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>3591</v>
+        <v>3709</v>
       </c>
       <c r="AG19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>3709</v>
+        <v> </v>
       </c>
       <c r="AH19" s="172" t="str">
         <f t="shared" si="2"/>
@@ -3978,19 +3978,19 @@
       </c>
       <c r="AJ19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>2824</v>
+        <v>3575</v>
       </c>
       <c r="AK19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>3575</v>
+        <v>3591</v>
       </c>
       <c r="AL19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>3591</v>
+        <v>3709</v>
       </c>
       <c r="AM19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>3709</v>
+        <v> </v>
       </c>
       <c r="AN19" s="172" t="str">
         <f t="shared" si="3"/>
@@ -6607,19 +6607,19 @@
       </c>
       <c r="H12" s="161" t="str">
         <f>'Segunda a Sexta'!H12:H18</f>
-        <v>LUIS ANTONIO DE SOUSA</v>
+        <v>GUILHERME LEMOS MOURAO</v>
       </c>
       <c r="I12" s="161" t="str">
         <f>'Segunda a Sexta'!I12:I18</f>
-        <v>GUILHERME LEMOS MOURAO</v>
+        <v>LUIZ ANTONIO DA SILVA</v>
       </c>
       <c r="J12" s="161" t="str">
         <f>'Segunda a Sexta'!J12:J18</f>
-        <v>LUIZ ANTONIO DA SILVA</v>
+        <v>WALDENIR JOSE DAS C. OLIVEIRAS</v>
       </c>
       <c r="K12" s="161" t="str">
         <f>'Segunda a Sexta'!K12:K18</f>
-        <v>WALDENIR JOSE DAS C. OLIVEIRAS</v>
+        <v> </v>
       </c>
       <c r="L12" s="161" t="str">
         <f>'Segunda a Sexta'!L12:L18</f>
@@ -6632,19 +6632,19 @@
       <c r="N12" s="161"/>
       <c r="O12" s="187" t="str">
         <f>'Segunda a Sexta'!H12:H18</f>
-        <v>LUIS ANTONIO DE SOUSA</v>
+        <v>GUILHERME LEMOS MOURAO</v>
       </c>
       <c r="P12" s="187" t="str">
         <f>'Segunda a Sexta'!I12:I18</f>
-        <v>GUILHERME LEMOS MOURAO</v>
+        <v>LUIZ ANTONIO DA SILVA</v>
       </c>
       <c r="Q12" s="187" t="str">
         <f>'Segunda a Sexta'!J12:J18</f>
-        <v>LUIZ ANTONIO DA SILVA</v>
+        <v>WALDENIR JOSE DAS C. OLIVEIRAS</v>
       </c>
       <c r="R12" s="187" t="str">
         <f>'Segunda a Sexta'!K12:K18</f>
-        <v>WALDENIR JOSE DAS C. OLIVEIRAS</v>
+        <v> </v>
       </c>
       <c r="S12" s="161" t="str">
         <f>'Segunda a Sexta'!L12:L18</f>
@@ -6939,19 +6939,19 @@
       </c>
       <c r="H19" s="168" t="str">
         <f>'Segunda a Sexta'!H19:H20</f>
-        <v>2824</v>
+        <v>3575</v>
       </c>
       <c r="I19" s="168" t="str">
         <f>'Segunda a Sexta'!I19:I20</f>
-        <v>3575</v>
+        <v>3591</v>
       </c>
       <c r="J19" s="170" t="str">
         <f>'Segunda a Sexta'!J19:J20</f>
-        <v>3591</v>
+        <v>3709</v>
       </c>
       <c r="K19" s="172" t="str">
         <f>'Segunda a Sexta'!K19:K20</f>
-        <v>3709</v>
+        <v> </v>
       </c>
       <c r="L19" s="172" t="str">
         <f>'Segunda a Sexta'!L19:L20</f>
@@ -6964,19 +6964,19 @@
       <c r="N19" s="172"/>
       <c r="O19" s="257" t="str">
         <f>'Segunda a Sexta'!H19:H20</f>
-        <v>2824</v>
+        <v>3575</v>
       </c>
       <c r="P19" s="257" t="str">
         <f>'Segunda a Sexta'!I19:I20</f>
-        <v>3575</v>
+        <v>3591</v>
       </c>
       <c r="Q19" s="257" t="str">
         <f>'Segunda a Sexta'!J19:J20</f>
-        <v>3591</v>
+        <v>3709</v>
       </c>
       <c r="R19" s="257" t="str">
         <f>'Segunda a Sexta'!K19:K20</f>
-        <v>3709</v>
+        <v> </v>
       </c>
       <c r="S19" s="172" t="str">
         <f>'Segunda a Sexta'!L19:L20</f>

--- a/outputs/sisaprophelper#autoaprop/autoapropxlsx/IDF.XLSX
+++ b/outputs/sisaprophelper#autoaprop/autoapropxlsx/IDF.XLSX
@@ -172,10 +172,10 @@
     <t>IDF</t>
   </si>
   <si>
-    <t>LUIS ANTONIO DE SOUSA</t>
+    <t>LUIZ ANTONIO DA SILVA</t>
   </si>
   <si>
-    <t>Matr.: 2824</t>
+    <t>Matr.: 3591</t>
   </si>
   <si>
     <r>
@@ -6324,7 +6324,7 @@
       <c r="E6" s="115"/>
       <c r="F6" s="104" t="str">
         <f>'Segunda a Sexta'!F6:L6</f>
-        <v>LUIS ANTONIO DE SOUSA</v>
+        <v>LUIZ ANTONIO DA SILVA</v>
       </c>
       <c r="G6" s="105"/>
       <c r="H6" s="105"/>
@@ -6413,7 +6413,7 @@
       <c r="E8" s="115"/>
       <c r="F8" s="104" t="str">
         <f>'Segunda a Sexta'!F8:L8</f>
-        <v>Matr.: 2824</v>
+        <v>Matr.: 3591</v>
       </c>
       <c r="G8" s="105"/>
       <c r="H8" s="105"/>

--- a/outputs/sisaprophelper#autoaprop/autoapropxlsx/IDF.XLSX
+++ b/outputs/sisaprophelper#autoaprop/autoapropxlsx/IDF.XLSX
@@ -133,9 +133,6 @@
     <t>ALEXANDRE CAMPOS TOBIAS</t>
   </si>
   <si>
-    <t>GUILHERME LEMOS MOURAO</t>
-  </si>
-  <si>
     <t>LUIZ ANTONIO DA SILVA</t>
   </si>
   <si>
@@ -148,16 +145,19 @@
     <t> </t>
   </si>
   <si>
-    <t>2505</t>
+    <t> </t>
   </si>
   <si>
-    <t>3575</t>
+    <t>2505</t>
   </si>
   <si>
     <t>3591</t>
   </si>
   <si>
     <t>3709</t>
+  </si>
+  <si>
+    <t> </t>
   </si>
   <si>
     <t> </t>
@@ -3523,15 +3523,15 @@
       <c r="N12" s="161"/>
       <c r="O12" s="187" t="str">
         <f>H12</f>
-        <v>GUILHERME LEMOS MOURAO</v>
+        <v>LUIZ ANTONIO DA SILVA</v>
       </c>
       <c r="P12" s="161" t="str">
         <f>I12</f>
-        <v>LUIZ ANTONIO DA SILVA</v>
+        <v>WALDENIR JOSE DAS C. OLIVEIRAS</v>
       </c>
       <c r="Q12" s="161" t="str">
         <f>J12</f>
-        <v>WALDENIR JOSE DAS C. OLIVEIRAS</v>
+        <v> </v>
       </c>
       <c r="R12" s="161" t="str">
         <f>K12</f>
@@ -3550,15 +3550,15 @@
       <c r="W12" s="161"/>
       <c r="X12" s="161" t="str">
         <f>H12</f>
-        <v>GUILHERME LEMOS MOURAO</v>
+        <v>LUIZ ANTONIO DA SILVA</v>
       </c>
       <c r="Y12" s="161" t="str">
         <f>I12</f>
-        <v>LUIZ ANTONIO DA SILVA</v>
+        <v>WALDENIR JOSE DAS C. OLIVEIRAS</v>
       </c>
       <c r="Z12" s="161" t="str">
         <f>J12</f>
-        <v>WALDENIR JOSE DAS C. OLIVEIRAS</v>
+        <v> </v>
       </c>
       <c r="AA12" s="161" t="str">
         <f>K12</f>
@@ -3574,15 +3574,15 @@
       </c>
       <c r="AD12" s="183" t="str">
         <f t="shared" si="0"/>
-        <v>GUILHERME LEMOS MOURAO</v>
+        <v>LUIZ ANTONIO DA SILVA</v>
       </c>
       <c r="AE12" s="161" t="str">
         <f t="shared" si="0"/>
-        <v>LUIZ ANTONIO DA SILVA</v>
+        <v>WALDENIR JOSE DAS C. OLIVEIRAS</v>
       </c>
       <c r="AF12" s="161" t="str">
         <f t="shared" si="0"/>
-        <v>WALDENIR JOSE DAS C. OLIVEIRAS</v>
+        <v> </v>
       </c>
       <c r="AG12" s="161" t="str">
         <f t="shared" si="0"/>
@@ -3598,15 +3598,15 @@
       </c>
       <c r="AJ12" s="183" t="str">
         <f t="shared" si="1"/>
-        <v>GUILHERME LEMOS MOURAO</v>
+        <v>LUIZ ANTONIO DA SILVA</v>
       </c>
       <c r="AK12" s="161" t="str">
         <f t="shared" si="1"/>
-        <v>LUIZ ANTONIO DA SILVA</v>
+        <v>WALDENIR JOSE DAS C. OLIVEIRAS</v>
       </c>
       <c r="AL12" s="161" t="str">
         <f t="shared" si="1"/>
-        <v>WALDENIR JOSE DAS C. OLIVEIRAS</v>
+        <v> </v>
       </c>
       <c r="AM12" s="161" t="str">
         <f t="shared" si="1"/>
@@ -3903,15 +3903,15 @@
       <c r="N19" s="172"/>
       <c r="O19" s="172" t="str">
         <f>H19</f>
-        <v>3575</v>
+        <v>3591</v>
       </c>
       <c r="P19" s="172" t="str">
         <f>I19</f>
-        <v>3591</v>
+        <v>3709</v>
       </c>
       <c r="Q19" s="172" t="str">
         <f>J19</f>
-        <v>3709</v>
+        <v> </v>
       </c>
       <c r="R19" s="172" t="str">
         <f>K19</f>
@@ -3930,15 +3930,15 @@
       <c r="W19" s="172"/>
       <c r="X19" s="172" t="str">
         <f>H19</f>
-        <v>3575</v>
+        <v>3591</v>
       </c>
       <c r="Y19" s="172" t="str">
         <f>I19</f>
-        <v>3591</v>
+        <v>3709</v>
       </c>
       <c r="Z19" s="172" t="str">
         <f>J19</f>
-        <v>3709</v>
+        <v> </v>
       </c>
       <c r="AA19" s="172" t="str">
         <f>K19</f>
@@ -3954,15 +3954,15 @@
       </c>
       <c r="AD19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>3575</v>
+        <v>3591</v>
       </c>
       <c r="AE19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>3591</v>
+        <v>3709</v>
       </c>
       <c r="AF19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>3709</v>
+        <v> </v>
       </c>
       <c r="AG19" s="172" t="str">
         <f t="shared" si="2"/>
@@ -3978,15 +3978,15 @@
       </c>
       <c r="AJ19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>3575</v>
+        <v>3591</v>
       </c>
       <c r="AK19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>3591</v>
+        <v>3709</v>
       </c>
       <c r="AL19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>3709</v>
+        <v> </v>
       </c>
       <c r="AM19" s="172" t="str">
         <f t="shared" si="3"/>
@@ -6607,15 +6607,15 @@
       </c>
       <c r="H12" s="161" t="str">
         <f>'Segunda a Sexta'!H12:H18</f>
-        <v>GUILHERME LEMOS MOURAO</v>
+        <v>LUIZ ANTONIO DA SILVA</v>
       </c>
       <c r="I12" s="161" t="str">
         <f>'Segunda a Sexta'!I12:I18</f>
-        <v>LUIZ ANTONIO DA SILVA</v>
+        <v>WALDENIR JOSE DAS C. OLIVEIRAS</v>
       </c>
       <c r="J12" s="161" t="str">
         <f>'Segunda a Sexta'!J12:J18</f>
-        <v>WALDENIR JOSE DAS C. OLIVEIRAS</v>
+        <v> </v>
       </c>
       <c r="K12" s="161" t="str">
         <f>'Segunda a Sexta'!K12:K18</f>
@@ -6632,15 +6632,15 @@
       <c r="N12" s="161"/>
       <c r="O12" s="187" t="str">
         <f>'Segunda a Sexta'!H12:H18</f>
-        <v>GUILHERME LEMOS MOURAO</v>
+        <v>LUIZ ANTONIO DA SILVA</v>
       </c>
       <c r="P12" s="187" t="str">
         <f>'Segunda a Sexta'!I12:I18</f>
-        <v>LUIZ ANTONIO DA SILVA</v>
+        <v>WALDENIR JOSE DAS C. OLIVEIRAS</v>
       </c>
       <c r="Q12" s="187" t="str">
         <f>'Segunda a Sexta'!J12:J18</f>
-        <v>WALDENIR JOSE DAS C. OLIVEIRAS</v>
+        <v> </v>
       </c>
       <c r="R12" s="187" t="str">
         <f>'Segunda a Sexta'!K12:K18</f>
@@ -6939,15 +6939,15 @@
       </c>
       <c r="H19" s="168" t="str">
         <f>'Segunda a Sexta'!H19:H20</f>
-        <v>3575</v>
+        <v>3591</v>
       </c>
       <c r="I19" s="168" t="str">
         <f>'Segunda a Sexta'!I19:I20</f>
-        <v>3591</v>
+        <v>3709</v>
       </c>
       <c r="J19" s="170" t="str">
         <f>'Segunda a Sexta'!J19:J20</f>
-        <v>3709</v>
+        <v> </v>
       </c>
       <c r="K19" s="172" t="str">
         <f>'Segunda a Sexta'!K19:K20</f>
@@ -6964,15 +6964,15 @@
       <c r="N19" s="172"/>
       <c r="O19" s="257" t="str">
         <f>'Segunda a Sexta'!H19:H20</f>
-        <v>3575</v>
+        <v>3591</v>
       </c>
       <c r="P19" s="257" t="str">
         <f>'Segunda a Sexta'!I19:I20</f>
-        <v>3591</v>
+        <v>3709</v>
       </c>
       <c r="Q19" s="257" t="str">
         <f>'Segunda a Sexta'!J19:J20</f>
-        <v>3709</v>
+        <v> </v>
       </c>
       <c r="R19" s="257" t="str">
         <f>'Segunda a Sexta'!K19:K20</f>
